--- a/input/test/MatrixModel_18.xlsx
+++ b/input/test/MatrixModel_18.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="1260" windowWidth="14500" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7900" yWindow="1260" windowWidth="20060" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Fitness" sheetId="4" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Equation</t>
   </si>
   <si>
-    <t>System Dynamics Fitness</t>
-  </si>
-  <si>
     <t>Step Size</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>User Equation Fitness</t>
   </si>
 </sst>
 </file>
@@ -207,7 +207,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,9 +217,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -633,72 +630,72 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -731,28 +728,28 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -762,10 +759,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
@@ -775,10 +772,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -788,10 +785,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -801,10 +798,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
